--- a/biology/Zoologie/Dinosauria_(musée)/Dinosauria_(musée).xlsx
+++ b/biology/Zoologie/Dinosauria_(musée)/Dinosauria_(musée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dinosauria_(mus%C3%A9e)</t>
+          <t>Dinosauria_(musée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dinosauria est un musée paléontologique spécialisé dans le domaine des dinosaures, situé à Espéraza, dans l'Aude (région Occitanie, France).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dinosauria_(mus%C3%A9e)</t>
+          <t>Dinosauria_(musée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Le musée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il ouvrit ses portes en 1992[1] et se trouve, comme il l'était déjà à son ouverture, sous la direction de l'association homonyme Dinosauria, à but non lucratif. Le musée livre en exposition au public jusqu'à 35 espèces différentes de dinosaures, soit sous forme de squelettes soit sous forme de modèles reconstitués grandeur nature, ainsi que la projection de films. Il dispose de squelettes, atelier de paléontologie et bien d'autres éléments. Il présente une exposition permanente consacrée à Tyrannosaurus Rex.
-En 2007, il a reçu un squelette complet d'Ampelosaurus atacis, trouvé lors de fouilles récentes (2001) au site de Bellevue (Bèlavista en occitan), dans la commune de Campagne-sur-Aude (Campanha d'Aude en occitan). Ce squelette est le plus complet des dinosaures de cette taille (douze mètres de long) découverts en France jusqu'à la date[2] et a été baptisé Eva en honneur d'Eva Morvan, l'étudiante en géologie de la faculté de Rennes[3] qui en fit la découverte[4]. Les reconstitutions grandeur nature ont été réalisées par l'artiste Claude Moréno (1959-2010)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ouvrit ses portes en 1992 et se trouve, comme il l'était déjà à son ouverture, sous la direction de l'association homonyme Dinosauria, à but non lucratif. Le musée livre en exposition au public jusqu'à 35 espèces différentes de dinosaures, soit sous forme de squelettes soit sous forme de modèles reconstitués grandeur nature, ainsi que la projection de films. Il dispose de squelettes, atelier de paléontologie et bien d'autres éléments. Il présente une exposition permanente consacrée à Tyrannosaurus Rex.
+En 2007, il a reçu un squelette complet d'Ampelosaurus atacis, trouvé lors de fouilles récentes (2001) au site de Bellevue (Bèlavista en occitan), dans la commune de Campagne-sur-Aude (Campanha d'Aude en occitan). Ce squelette est le plus complet des dinosaures de cette taille (douze mètres de long) découverts en France jusqu'à la date et a été baptisé Eva en honneur d'Eva Morvan, l'étudiante en géologie de la faculté de Rennes qui en fit la découverte. Les reconstitutions grandeur nature ont été réalisées par l'artiste Claude Moréno (1959-2010).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dinosauria_(mus%C3%A9e)</t>
+          <t>Dinosauria_(musée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Quelques spécimens du musée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ampelosaurus atacis (squelette complet de 12 mètres de long)
 Camarasaurus (crâne)
